--- a/analysis/participant_extractedmetrics/participant300.xlsx
+++ b/analysis/participant_extractedmetrics/participant300.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="76">
   <si>
     <t/>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">pre gem </t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
   <si>
     <t>arg2</t>
@@ -244,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -255,6 +258,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,12 +279,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,7 +1560,777 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>105.0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>133.0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1051.04</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10577.81</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2786.41</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3704.24</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2786.41</v>
+      </c>
+      <c r="G27" s="4">
+        <v>27748.88</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="4">
+        <v>4621.68</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1751.76</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1051.04</v>
+      </c>
+      <c r="M27" s="4">
+        <v>250.32</v>
+      </c>
+      <c r="N27" s="4">
+        <v>533.87</v>
+      </c>
+      <c r="O27" s="4">
+        <v>533.87</v>
+      </c>
+      <c r="P27" s="4">
+        <v>40558.51</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1151.11</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1051.04</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1451.39</v>
+      </c>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7.63</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.01</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.01</v>
+      </c>
+      <c r="G28" s="4">
+        <v>20.01</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="P28" s="4">
+        <v>29.25</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>262.76</v>
+      </c>
+      <c r="C29" s="4">
+        <v>311.11</v>
+      </c>
+      <c r="D29" s="4">
+        <v>278.64</v>
+      </c>
+      <c r="E29" s="4">
+        <v>284.94</v>
+      </c>
+      <c r="F29" s="4">
+        <v>278.64</v>
+      </c>
+      <c r="G29" s="4">
+        <v>264.28</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4">
+        <v>288.86</v>
+      </c>
+      <c r="K29" s="4">
+        <v>291.96</v>
+      </c>
+      <c r="L29" s="4">
+        <v>262.76</v>
+      </c>
+      <c r="M29" s="4">
+        <v>250.32</v>
+      </c>
+      <c r="N29" s="4">
+        <v>533.87</v>
+      </c>
+      <c r="O29" s="4">
+        <v>533.87</v>
+      </c>
+      <c r="P29" s="4">
+        <v>304.95</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>383.7</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="4">
+        <v>262.76</v>
+      </c>
+      <c r="T29" s="4">
+        <v>362.85</v>
+      </c>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="C30" s="4">
+        <v>283.66</v>
+      </c>
+      <c r="D30" s="4">
+        <v>133.4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="F30" s="4">
+        <v>133.4</v>
+      </c>
+      <c r="G30" s="4">
+        <v>170.17</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="K30" s="4">
+        <v>250.32</v>
+      </c>
+      <c r="L30" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="M30" s="4">
+        <v>250.32</v>
+      </c>
+      <c r="N30" s="4">
+        <v>533.87</v>
+      </c>
+      <c r="O30" s="4">
+        <v>533.87</v>
+      </c>
+      <c r="P30" s="4">
+        <v>133.5</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>250.25</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="4">
+        <v>266.97</v>
+      </c>
+      <c r="T30" s="4">
+        <v>133.4</v>
+      </c>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1563,34 +2350,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1599,34 +2386,34 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>9</v>
@@ -1635,10 +2422,10 @@
         <v>10</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>11</v>
@@ -1647,22 +2434,22 @@
         <v>12</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>13</v>
@@ -1674,46 +2461,46 @@
         <v>16</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>0</v>
@@ -1880,7 +2667,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1">
         <v>100.0</v>
@@ -3007,7 +3794,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -3015,34 +3802,34 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>2</v>
@@ -3051,34 +3838,34 @@
         <v>3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>9</v>
@@ -3087,10 +3874,10 @@
         <v>10</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>11</v>
@@ -3099,22 +3886,22 @@
         <v>12</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>13</v>
@@ -3126,46 +3913,46 @@
         <v>16</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BA14" s="1" t="s">
         <v>0</v>
@@ -3332,7 +4119,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1">
         <v>100.0</v>
@@ -4457,7 +5244,1225 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>103.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>302.0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X28" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="C29" s="4">
+        <v>717.45</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="H29" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1301.39</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1184.61</v>
+      </c>
+      <c r="L29" s="4">
+        <v>24792.49</v>
+      </c>
+      <c r="M29" s="4">
+        <v>4721.5</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2135.42</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1184.45</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>250.2</v>
+      </c>
+      <c r="R29" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="S29" s="4">
+        <v>77151.02</v>
+      </c>
+      <c r="T29" s="4">
+        <v>834.27</v>
+      </c>
+      <c r="U29" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="V29" s="4">
+        <v>717.45</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="4">
+        <v>13163.23</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>5038.95</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>517.21</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>1017.69</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>1117.67</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>5756.27</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>16835.22</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ29" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>367.06</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="L30" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2.18</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="S30" s="4">
+        <v>35.57</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>2.32</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="C31" s="4">
+        <v>239.15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="H31" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="I31" s="4">
+        <v>325.35</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="4">
+        <v>197.44</v>
+      </c>
+      <c r="L31" s="4">
+        <v>240.7</v>
+      </c>
+      <c r="M31" s="4">
+        <v>224.83</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="4">
+        <v>194.13</v>
+      </c>
+      <c r="P31" s="4">
+        <v>296.11</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>125.1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="S31" s="4">
+        <v>255.47</v>
+      </c>
+      <c r="T31" s="4">
+        <v>278.09</v>
+      </c>
+      <c r="U31" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="V31" s="4">
+        <v>239.15</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" s="4">
+        <v>248.36</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>314.93</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>258.6</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>254.42</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>279.42</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>274.11</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>243.99</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>367.06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="C32" s="4">
+        <v>450.54</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="H32" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="I32" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="L32" s="4">
+        <v>183.56</v>
+      </c>
+      <c r="M32" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="4">
+        <v>116.72</v>
+      </c>
+      <c r="P32" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>116.72</v>
+      </c>
+      <c r="R32" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="S32" s="4">
+        <v>283.46</v>
+      </c>
+      <c r="T32" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="U32" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="V32" s="4">
+        <v>450.54</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X32" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>300.28</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>100.28</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>250.33</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>99.98</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>367.06</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4480,31 +6485,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
@@ -4513,7 +6518,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -4522,7 +6527,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -4540,7 +6545,7 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>18</v>
@@ -5088,7 +7093,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -5099,31 +7104,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>6</v>
@@ -5132,7 +7137,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>11</v>
@@ -5141,7 +7146,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>13</v>
@@ -5159,7 +7164,7 @@
         <v>17</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>18</v>
@@ -5705,7 +7710,1225 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ24" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>103.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>302.0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="C26" s="4">
+        <v>717.45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="H26" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1301.39</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1184.61</v>
+      </c>
+      <c r="L26" s="4">
+        <v>24792.49</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4721.5</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2135.42</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1184.45</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>250.2</v>
+      </c>
+      <c r="R26" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="S26" s="4">
+        <v>77151.02</v>
+      </c>
+      <c r="T26" s="4">
+        <v>834.27</v>
+      </c>
+      <c r="U26" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="V26" s="4">
+        <v>717.45</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X26" s="4">
+        <v>13163.23</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>5038.95</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>517.21</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1017.69</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>1117.67</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>5756.27</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>16835.22</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>367.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="L27" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2.18</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="S27" s="4">
+        <v>35.57</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>2.32</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="C28" s="4">
+        <v>239.15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="H28" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="I28" s="4">
+        <v>325.35</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="4">
+        <v>197.44</v>
+      </c>
+      <c r="L28" s="4">
+        <v>240.7</v>
+      </c>
+      <c r="M28" s="4">
+        <v>224.83</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="4">
+        <v>194.13</v>
+      </c>
+      <c r="P28" s="4">
+        <v>296.11</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>125.1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="S28" s="4">
+        <v>255.47</v>
+      </c>
+      <c r="T28" s="4">
+        <v>278.09</v>
+      </c>
+      <c r="U28" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="V28" s="4">
+        <v>239.15</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X28" s="4">
+        <v>248.36</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>314.93</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>258.6</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>254.42</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>279.42</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>274.11</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>243.99</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>367.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="C29" s="4">
+        <v>450.54</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="H29" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="I29" s="4">
+        <v>283.64</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="L29" s="4">
+        <v>183.56</v>
+      </c>
+      <c r="M29" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="4">
+        <v>116.72</v>
+      </c>
+      <c r="P29" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>116.72</v>
+      </c>
+      <c r="R29" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="S29" s="4">
+        <v>283.46</v>
+      </c>
+      <c r="T29" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="U29" s="4">
+        <v>116.81</v>
+      </c>
+      <c r="V29" s="4">
+        <v>450.54</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>300.28</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>100.28</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>182.84</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>250.33</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>99.98</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>150.15</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ29" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>367.06</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>